--- a/medicine/Enfance/Child_of_deaf_adult/Child_of_deaf_adult.xlsx
+++ b/medicine/Enfance/Child_of_deaf_adult/Child_of_deaf_adult.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un enfant entendant de parents sourds (EEPS), aussi communément désigné par l'acronyme anglais CODA (de Child of deaf adult), est une personne élevée par une ou plusieurs personnes sourdes, qui appartient à la culture sourde de par la fréquence de sa pratique d'une langue des signes et de sa participation à la vie sociale de la communauté sourde. Beaucoup de CODA sont bilingues, apprenant à la fois une langue parlée et son équivalent en langue des signes, et biculturels, car partageant à la fois la culture des sourds et des entendants.
@@ -512,19 +524,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Millie Brother est à l'origine du terme Child of deaf adult lorsqu'il a fondé l'organisation CODA en 1983. Pour être un CODA, il faut réunir trois conditions :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Millie Brother est à l'origine du terme Child of deaf adult lorsqu'il a fondé l'organisation CODA en 1983. Pour être un CODA, il faut réunir trois conditions :
 l’un des deux parents ou adulte de l’enfant doit être sourd ;
 la langue première ou langue dite privilégiée doit être la langue des signes ;
-l’enfant doit s’impliquer dans la communauté sourde.
-France
-On traduit CODA en « enfant entendant de parents sourds » (EEPS). L’EEPS quant à lui ne respecte pas obligatoirement ces trois critères sauf l’un des deux parents de l’enfant doit être sourd. L'association CODA France est créé en janvier 2013 par Sonia Flore[1]. L'association se donne pour missions[2] :
-d'informer, soutenir et accompagner le parent sourd et son enfant entendant ;
-de donner la place d'enfant entendant et le parent sourd ;
-d'assurer le parent sourd de communiquer avec son enfant entendant en langue des signes.
-CODA France souligne que la langue des signes est naturelle pour l'enfant entendant de parent sourd et déconseille d'utiliser son enfant entendant pour traduire pendant des réunions, des rendez-vous, etc.[2].
-</t>
+l’enfant doit s’impliquer dans la communauté sourde.</t>
         </is>
       </c>
     </row>
@@ -549,12 +556,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Statistiques</t>
+          <t>Étymologie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">90 % des enfants nés de parents sourds peuvent entendre normalement[3].
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On traduit CODA en « enfant entendant de parents sourds » (EEPS). L’EEPS quant à lui ne respecte pas obligatoirement ces trois critères sauf l’un des deux parents de l’enfant doit être sourd. L'association CODA France est créé en janvier 2013 par Sonia Flore. L'association se donne pour missions :
+d'informer, soutenir et accompagner le parent sourd et son enfant entendant ;
+de donner la place d'enfant entendant et le parent sourd ;
+d'assurer le parent sourd de communiquer avec son enfant entendant en langue des signes.
+CODA France souligne que la langue des signes est naturelle pour l'enfant entendant de parent sourd et déconseille d'utiliser son enfant entendant pour traduire pendant des réunions, des rendez-vous, etc..
 </t>
         </is>
       </c>
@@ -580,10 +597,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Statistiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">90 % des enfants nés de parents sourds peuvent entendre normalement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Child_of_deaf_adult</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Child_of_deaf_adult</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Mode de communication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il y a trois possibilités de la communication entre les enfants entendants et les parents sourds:
 avec la voix (soit les parents oralisés soit les parents signants) ;
@@ -592,34 +644,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Child_of_deaf_adult</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Child_of_deaf_adult</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Personnalités CODA notables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CODA réels
-Albert Camus (1913-1960), écrivain et philosophe français, prix Nobel de littérature ;
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CODA réels</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Albert Camus (1913-1960), écrivain et philosophe français, prix Nobel de littérature ;
 Dennis Daugaard (1953-), un homme politique américain ;
 Edward Miner Gallaudet et son frère Thomas Gallaudet ;
 Sophie Bergé-Fino, réalisatrice pour l'émission L'œil et la main ;
@@ -631,9 +688,43 @@
 Richard Griffiths (1947-2013),  acteur de cinéma britannique connu pour le rôle Vernon Dursley, l'oncle antipathique de Harry Potter dans l'intégralité de la saga.
 Rachel Shenton, actrice connue pour avoir incarné Lily dans la série américaine Switched at Birth
 Bobby Allain; un gardien de football professionnel
-Véronique Poulain, une écrivaine
-CODA fictifs
-Abigail Sciuto ou Abby, interprétée par Pauley Perrette dans la série télévisée NCIS : Enquêtes spéciales ;
+Véronique Poulain, une écrivaine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Child_of_deaf_adult</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Child_of_deaf_adult</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités CODA notables</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CODA fictifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Abigail Sciuto ou Abby, interprétée par Pauley Perrette dans la série télévisée NCIS : Enquêtes spéciales ;
 Paula Bélier, interprétée par Louane, dans La Famille Bélier ;
 Ruby Rossi, interprétée par Emilia Jones, dans Coda, remake de La Famille Bélier ;
 Gil Grissom, interprété par William Petersen dans la série télévisée Les Experts ;
